--- a/datastatic/datasets/online/SDG13_germanwatch_currentemissions.xlsx
+++ b/datastatic/datasets/online/SDG13_germanwatch_currentemissions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>original_title</t>
   </si>
@@ -52,7 +52,7 @@
     <t>long_indicator_description$en$text</t>
   </si>
   <si>
-    <t xml:space="preserve">The level of current emissions is measured by using four separate indicators: Primary Energy Supply per Capita, CO2 per Capita, Target-Performance Comparison and Emissions from Deforestation per Capita. The level of current emissions only changes very slowly. Thus, it is less an indicator of the performance of climate protection than an indicator of the respective starting point of the investigated countries. For countries with higher initial emission levels, it is easier to reduce emissions. </t>
+    <t>The level of current emissions only changes very slowly. Thus, it is less an indicator of the performance of climate protection than an indicator of the respective starting point of the investigated countries. The level of current emissions is measured by using four separate indicators: Primary Energy Supply per capita, CO2 per capita, Target-Performance Comparison and Emissions from Deforestation per capita.</t>
   </si>
   <si>
     <t>long_indicator_description$en$baseunit</t>
@@ -64,13 +64,13 @@
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t>Für das Emissionsniveau werden vier verschiedene Indikatoren genutzt: CO2 pro Kopf, Primärenergieverbrauch pro Kopf, Zielperformance Vergleich und CO2 Emissionen durch Abholzung pro Kopf. Das Emissionsniveau eines Landes ändert sich nur sehr langsam. Deshalb ist es weniger ein Indikator, um die aktuelle Klimaschutzleistung zu messen. Vielmehr zeigt es an, von wo die Länder starten. Länder mit hohem Emissionsniveau haben es leichter Ihre Emissionen zu reduzieren als andere.</t>
+    <t>Das Emissionsniveau eines Landes ändert sich nur sehr langsam. Deshalb ist es weniger ein Indikator, um die aktuelle Klimaschutzleistung zu messen. Vielmehr zeigt es an, von wo die Länder starten. Länder mit hohem Emissionsniveau haben es leichter Ihre Emissionen zu reduzieren als andere. Für das Emissionsniveau werden vier verschiedene Indikatoren genutzt: CO2 pro Kopf, Primärenergieverbrauch pro Kopf, Zielperformance Vergleich und CO2 Emissionen durch Abholzung pro Kopf.</t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>
   </si>
   <si>
-    <t>Zusammengesetzer Indikator</t>
+    <t>Punkte (Zusammengesetzer Indikator)</t>
   </si>
   <si>
     <t>target</t>
@@ -88,15 +88,21 @@
     <t>target$rating</t>
   </si>
   <si>
-    <t>100; 75,09-88,96; 65,40-72,97;55,26-64,87;14,48-54,13</t>
+    <t>100, 88.96, 72.97, 64.87, 54.13</t>
   </si>
   <si>
     <t>target$explanation$de</t>
   </si>
   <si>
+    <t xml:space="preserve">Theoretisch ist es für ein Land möglich, sowohl in den einzelnen Kategorien, als auch im Gesamtergebnis 100 Punkte zu erhalten. Dabei ist jedoch zu beachten, dass es sich nur um relative Werte handelt und nicht zwangsweise die absolut beste Leistung im Klimaschutz abbildet. </t>
+  </si>
+  <si>
     <t>target$explanation$en</t>
   </si>
   <si>
+    <t>Important for the interpretation is the following: 100 points are possible in principle, but for each partial indicator, and for the overall score, this still only means the best relative performance, which is not necessarily the optimal climate protection effort.</t>
+  </si>
+  <si>
     <t>target$target_reference</t>
   </si>
   <si>
@@ -115,7 +121,7 @@
     <t>target$ministerial_responsibility</t>
   </si>
   <si>
-    <t>BMUB, BMWi, BMEL</t>
+    <t>BMUB</t>
   </si>
   <si>
     <t>target$other_relevant_SDGs</t>
@@ -172,7 +178,7 @@
     <t>source$license</t>
   </si>
   <si>
-    <t>???</t>
+    <t>CC BY-NC-SA 4.0</t>
   </si>
   <si>
     <t>countries</t>
@@ -302,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -313,12 +319,26 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +365,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor rgb="FFFF33CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -367,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -389,16 +415,31 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -412,7 +453,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -489,7 +530,7 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -505,7 +546,7 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -535,7 +576,9 @@
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
@@ -549,49 +592,53 @@
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="8">
+        <v>34</v>
+      </c>
+      <c r="B21" s="12">
         <v>13.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4">
         <v>7.0</v>
@@ -599,29 +646,29 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="9">
+        <v>39</v>
+      </c>
+      <c r="B25" s="13">
         <v>42725.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2">
         <v>2014.0</v>
@@ -629,81 +676,81 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11" t="s">
-        <v>55</v>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4">
         <v>27.99</v>
@@ -711,7 +758,7 @@
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" s="4">
         <v>56.92</v>
@@ -719,7 +766,7 @@
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="4">
         <v>55.26</v>
@@ -727,7 +774,7 @@
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="4">
         <v>80.31</v>
@@ -735,7 +782,7 @@
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" s="4">
         <v>18.14</v>
@@ -743,13 +790,13 @@
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44" s="4">
         <v>62.01</v>
@@ -757,7 +804,7 @@
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" s="4">
         <v>59.51</v>
@@ -765,7 +812,7 @@
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" s="4">
         <v>66.79</v>
@@ -773,7 +820,7 @@
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="4">
         <v>54.12</v>
@@ -781,7 +828,7 @@
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" s="4">
         <v>48.95</v>
@@ -789,7 +836,7 @@
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" s="4">
         <v>67.12</v>
@@ -797,7 +844,7 @@
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="4">
         <v>56.38</v>
@@ -805,7 +852,7 @@
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4">
         <v>64.87</v>
@@ -813,7 +860,7 @@
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52" s="4">
         <v>72.32</v>
@@ -821,7 +868,7 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" s="4">
         <v>46.38</v>
@@ -829,7 +876,7 @@
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" s="4">
         <v>63.06</v>
@@ -837,13 +884,13 @@
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4">
         <v>67.51</v>
@@ -851,7 +898,7 @@
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4">
         <v>51.7</v>
@@ -859,7 +906,7 @@
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" s="4">
         <v>33.75</v>
@@ -867,7 +914,7 @@
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" s="4">
         <v>36.9</v>
@@ -875,7 +922,7 @@
     </row>
     <row r="60">
       <c r="A60" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="4">
         <v>76.11</v>
@@ -883,7 +930,7 @@
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" s="4">
         <v>50.96</v>
@@ -891,7 +938,7 @@
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="4">
         <v>59.51</v>
@@ -899,7 +946,7 @@
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="4">
         <v>56.06</v>
@@ -907,7 +954,7 @@
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="4">
         <v>63.81</v>
@@ -915,7 +962,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="4">
         <v>69.09</v>
@@ -923,7 +970,7 @@
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="4">
         <v>71.13</v>
@@ -931,7 +978,7 @@
     </row>
     <row r="67">
       <c r="A67" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="4">
         <v>64.34</v>
@@ -939,7 +986,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="4">
         <v>55.98</v>
@@ -947,7 +994,7 @@
     </row>
     <row r="69">
       <c r="A69" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="4">
         <v>66.49</v>
@@ -955,7 +1002,7 @@
     </row>
     <row r="70">
       <c r="A70" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="4">
         <v>64.7</v>
@@ -963,7 +1010,7 @@
     </row>
     <row r="71">
       <c r="A71" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="4">
         <v>66.42</v>
@@ -971,7 +1018,7 @@
     </row>
     <row r="72">
       <c r="A72" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4">
         <v>76.23</v>
@@ -979,7 +1026,7 @@
     </row>
     <row r="73">
       <c r="A73" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="4">
         <v>65.4</v>
@@ -987,7 +1034,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="4">
         <v>29.43</v>
@@ -995,7 +1042,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="4">
         <v>52.76</v>
